--- a/reports/air_forecasting/date_price_weigth.xlsx
+++ b/reports/air_forecasting/date_price_weigth.xlsx
@@ -457,7 +457,7 @@
         <v>45412</v>
       </c>
       <c r="C2" t="n">
-        <v>317413.6798078323</v>
+        <v>331549.5089169396</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>45443</v>
       </c>
       <c r="C3" t="n">
-        <v>321739.0015540551</v>
+        <v>332506.8330502948</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>45473</v>
       </c>
       <c r="C4" t="n">
-        <v>304833.6710475831</v>
+        <v>313954.5589419867</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>45504</v>
       </c>
       <c r="C5" t="n">
-        <v>270341.2518984387</v>
+        <v>283718.0416895222</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>45535</v>
       </c>
       <c r="C6" t="n">
-        <v>350911.879004387</v>
+        <v>364414.626653755</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>45565</v>
       </c>
       <c r="C7" t="n">
-        <v>315184.9982974217</v>
+        <v>332060.2488232887</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>45596</v>
       </c>
       <c r="C8" t="n">
-        <v>333476.5003297993</v>
+        <v>362624.4489222557</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         <v>45626</v>
       </c>
       <c r="C9" t="n">
-        <v>403932.2702365749</v>
+        <v>436953.9941760423</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>45657</v>
       </c>
       <c r="C10" t="n">
-        <v>280192.8511483361</v>
+        <v>290192.884583634</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>45688</v>
       </c>
       <c r="C11" t="n">
-        <v>306080.3159230844</v>
+        <v>322138.4572935918</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>45716</v>
       </c>
       <c r="C12" t="n">
-        <v>282270.9346049987</v>
+        <v>294956.5822628847</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +578,7 @@
         <v>45747</v>
       </c>
       <c r="C13" t="n">
-        <v>374520.4078418375</v>
+        <v>392912.4233746121</v>
       </c>
     </row>
   </sheetData>
